--- a/CashFlow/HOLX_cashflow.xlsx
+++ b/CashFlow/HOLX_cashflow.xlsx
@@ -758,19 +758,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1685000000.0</v>
+        <v>-38000000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>1630000000.0</v>
+        <v>-31600000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>1195100000.0</v>
+        <v>-25300000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>818800000.0</v>
+        <v>-29300000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>377100000.0</v>
+        <v>-42300000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-50000000.0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>75800000.0</v>
+        <v>715000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>55100000.0</v>
+        <v>624000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>27900000.0</v>
+        <v>417400000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>9100000.0</v>
+        <v>269800000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>39600000.0</v>
+        <v>166100000.0</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>12500000.0</v>
